--- a/CP02PMCO/Omaha_Cal_Info_CP02PMCO_00002.xlsx
+++ b/CP02PMCO/Omaha_Cal_Info_CP02PMCO_00002.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Repaired GIT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14352" windowHeight="8052" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="9200" yWindow="9020" windowWidth="25980" windowHeight="11280" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
     <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Asset_Cal_Info!$A$1:$F$33</definedName>
-    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Asset_Cal_Info!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$35</definedName>
     <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0">Moorings!$A$1:$J$78</definedName>
     <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
@@ -30,17 +25,22 @@
     <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$F$401</definedName>
     <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$33</definedName>
+    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$35</definedName>
     <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$78</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$401</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
   <si>
     <t>Ref Des</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>CP02PMCO-00002</t>
-  </si>
-  <si>
-    <t>KN 222</t>
   </si>
   <si>
     <t>Mooring Serial Number</t>
@@ -270,18 +267,9 @@
     <t>CP02PMCO-SBS01-00-STCENG000</t>
   </si>
   <si>
-    <t>PMCO-00002-STC</t>
-  </si>
-  <si>
     <t>This serial number is a placekeeper used until the correct serial number is found or defined</t>
   </si>
   <si>
-    <t>CP02PMCO-SBS01-00-RTE000000</t>
-  </si>
-  <si>
-    <t>PMCO-00002-RTE</t>
-  </si>
-  <si>
     <t>CP02PMCO-WFP01-00-WFPENG000</t>
   </si>
   <si>
@@ -294,19 +282,22 @@
     <t>PMCO-00002-MOPAK</t>
   </si>
   <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Lon</t>
-  </si>
-  <si>
-    <t>40° 06.072' N</t>
-  </si>
-  <si>
-    <t>70° 53.274' W</t>
-  </si>
-  <si>
     <t>CP02PMCO-RII01-02-ADCPTG010</t>
+  </si>
+  <si>
+    <t>40° 06.074' N</t>
+  </si>
+  <si>
+    <t>70° 53.261' W</t>
+  </si>
+  <si>
+    <t>KN-222</t>
+  </si>
+  <si>
+    <t>SWE 0010</t>
+  </si>
+  <si>
+    <t>units = mm</t>
   </si>
 </sst>
 </file>
@@ -316,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -390,24 +381,46 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +436,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,12 +509,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -512,9 +537,6 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -555,21 +577,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 15" xfId="2"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
@@ -698,7 +731,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -733,7 +766,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -910,7 +943,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -918,29 +951,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.88671875"/>
-    <col min="2" max="2" width="39.44140625"/>
-    <col min="3" max="3" width="14.44140625"/>
-    <col min="4" max="4" width="24.109375"/>
-    <col min="5" max="6" width="17.44140625"/>
-    <col min="7" max="8" width="18.6640625"/>
-    <col min="9" max="9" width="17.88671875"/>
-    <col min="10" max="10" width="12.6640625"/>
-    <col min="11" max="11" width="40.33203125"/>
-    <col min="12" max="12" width="14.6640625"/>
-    <col min="13" max="13" width="15.44140625"/>
-    <col min="14" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,14 +999,8 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" s="25" customFormat="1" ht="15">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -994,852 +1013,833 @@
       <c r="D2" s="5">
         <v>41919</v>
       </c>
-      <c r="E2" s="6">
-        <v>0.79444444444444395</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>72</v>
+      <c r="E2" s="23">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="F2" s="5">
+        <v>42125</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="I2" s="4">
         <v>147</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="24">
-        <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
-        <v>40.101199999999999</v>
-      </c>
-      <c r="M2" s="24">
-        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
-        <v>-70.887900000000002</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="K2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.5546875"/>
-    <col min="2" max="2" width="28.44140625"/>
-    <col min="3" max="3" width="24.33203125"/>
-    <col min="4" max="4" width="26.6640625"/>
-    <col min="5" max="5" width="47"/>
-    <col min="6" max="6" width="28.44140625"/>
-    <col min="7" max="7" width="11.5546875"/>
-    <col min="8" max="8" width="11.44140625"/>
-    <col min="9" max="9" width="11.88671875"/>
-    <col min="10" max="10" width="14.44140625"/>
-    <col min="11" max="11" width="13.44140625"/>
-    <col min="12" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" customWidth="1"/>
+    <col min="7" max="7" width="39.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10">
+        <v>19336</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="F2" s="29">
+        <v>127000</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
         <v>19336</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="12">
-        <v>127.37</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="11">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="F3" s="11">
+        <v>40.101233333333298</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
         <v>19336</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F4" s="11">
+        <v>-70.8876833333333</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2497</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="13">
+        <v>-837.37</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2497</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11">
         <v>40.101233333333298</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="11">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11">
-        <v>19336</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="12">
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2497</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="11">
         <v>-70.8876833333333</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15">
         <v>2497</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="14">
-        <v>-837.37</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="E11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="F11" s="13">
+        <v>2.5849999999999999E-4</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="15">
         <v>2497</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="13">
+        <v>-3.3024999999999999E-3</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2497</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1.9880000000000001E-4</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2497</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="13">
+        <v>-3.0292999999999999E-6</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2497</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10">
+        <v>111</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="11">
+        <v>40.101233333333298</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10">
+        <v>111</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F18" s="11">
+        <v>-70.8876833333333</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="15">
+        <v>100015</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="11">
         <v>40.101233333333298</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-      <c r="D8" s="16">
-        <v>2497</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="15">
+        <v>100015</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="11">
         <v>-70.8876833333333</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11">
-        <v>2</v>
-      </c>
-      <c r="D9" s="16">
-        <v>2497</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="14">
-        <v>2.5849999999999999E-4</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="11">
-        <v>2</v>
-      </c>
-      <c r="D10" s="16">
-        <v>2497</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="14">
-        <v>-3.3024999999999999E-3</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="16">
-        <v>2497</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="14">
-        <v>1.9880000000000001E-4</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2</v>
-      </c>
-      <c r="D12" s="16">
-        <v>2497</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="14">
-        <v>-3.0292999999999999E-6</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2</v>
-      </c>
-      <c r="D13" s="16">
-        <v>2497</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="14">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="11">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11">
-        <v>111</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="12">
-        <v>40.101233333333298</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="11">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11">
-        <v>111</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="12">
-        <v>-70.8876833333333</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="11">
-        <v>2</v>
-      </c>
-      <c r="D18" s="16">
-        <v>100015</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="12">
-        <v>40.101233333333298</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2</v>
-      </c>
-      <c r="D19" s="16">
-        <v>100015</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="12">
-        <v>-70.8876833333333</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="B23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1029</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="11">
-        <v>2</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="F23" s="26">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10">
         <v>1029</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="11">
+        <v>50</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1029</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="11">
+        <v>53</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1029</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="11">
+        <v>50</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1029</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="26">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="27">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="11">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10">
         <v>1029</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="12">
+      <c r="E28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="26">
+        <v>700</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1029</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="11">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="10">
+        <v>2</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1029</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="11">
-        <v>2</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="F30" s="11">
+        <v>1.21E-2</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10">
         <v>1029</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="12">
+      <c r="E31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="17">
+        <v>3.49E-6</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1029</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="11">
-        <v>2</v>
-      </c>
-      <c r="D24" s="11">
-        <v>1029</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="12">
-        <v>50</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="11">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11">
-        <v>1029</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="12">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="11">
-        <v>2</v>
-      </c>
-      <c r="D26" s="11">
-        <v>1029</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="12">
-        <v>700</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="11">
-        <v>2</v>
-      </c>
-      <c r="D27" s="11">
-        <v>1029</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="12">
-        <v>9.0700000000000003E-2</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="11">
-        <v>2</v>
-      </c>
-      <c r="D28" s="11">
-        <v>1029</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="12">
-        <v>1.21E-2</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="11">
-        <v>2</v>
-      </c>
-      <c r="D29" s="11">
-        <v>1029</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="18">
-        <v>3.49E-6</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="11">
-        <v>2</v>
-      </c>
-      <c r="D30" s="11">
-        <v>1029</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="F32" s="26">
+        <v>124</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="27">
-        <v>124</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="B34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="10">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10">
+        <v>20437</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="11">
-        <v>2</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="F34" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="10">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10">
         <v>20437</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="G32" s="15" t="s">
+      <c r="E35" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="11">
-        <v>2</v>
-      </c>
-      <c r="D33" s="11">
-        <v>20437</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="F35" s="18">
+        <v>1.01E-17</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="19">
-        <v>1.01E-17</v>
-      </c>
-      <c r="G33" s="15" t="s">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="10">
+        <v>2</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="B39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="10">
+        <v>2</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="11">
-        <v>2</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="11">
-        <v>2</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="11">
-        <v>2</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="11">
-        <v>2</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="10"/>
+      <c r="H39" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>